--- a/specific_variables/snow-temperature-profile.xlsx
+++ b/specific_variables/snow-temperature-profile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/specific_variables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F883AF3E-1C57-384F-A196-F1A5606A4381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F86C02-A677-5F44-97C2-6CAAE11FD7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17240" yWindow="1860" windowWidth="20540" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="44">
   <si>
     <t>Variable</t>
   </si>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t>external battery voltage reported by sensor chip</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
 </sst>
 </file>
@@ -587,10 +593,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C1014"/>
+  <dimension ref="A1:C1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -634,7 +640,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -674,453 +680,449 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="17"/>
-      <c r="B10" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="3"/>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="7">
-        <v>-1E+20</v>
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="3"/>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>32</v>
+        <v>9</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
+      </c>
+      <c r="C27" s="7">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="7">
-        <v>-1E+20</v>
+        <v>17</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="3"/>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="33" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>32</v>
+        <v>9</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>35</v>
+        <v>11</v>
+      </c>
+      <c r="C37" s="7">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="7">
-        <v>-1E+20</v>
+        <v>17</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="C40" s="3"/>
     </row>
     <row r="41" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="C41" s="3"/>
     </row>
     <row r="42" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" s="3"/>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="43" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>38</v>
+        <v>9</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>37</v>
+        <v>11</v>
+      </c>
+      <c r="C47" s="7">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="7">
-        <v>-1E+20</v>
+        <v>17</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="C50" s="3"/>
     </row>
     <row r="51" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="C51" s="3"/>
     </row>
     <row r="52" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C52" s="3"/>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="53" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" s="23" t="s">
-        <v>40</v>
+        <v>9</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>41</v>
+        <v>11</v>
+      </c>
+      <c r="C57" s="7">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="7">
-        <v>-1E+20</v>
+        <v>17</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" t="s">
-        <v>14</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="C60" s="3"/>
     </row>
     <row r="61" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C61" s="3"/>
+      <c r="A61" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="8"/>
     </row>
     <row r="62" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="8"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="63" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
       <c r="B63" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>19</v>
+        <v>6</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
       <c r="B64" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="C64" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65" s="9">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
-      <c r="B66" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" s="22" t="s">
-        <v>29</v>
+      <c r="B66" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
-      <c r="B67" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>22</v>
+      <c r="B67" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
-      <c r="B68" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C68" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="B68" s="4"/>
+      <c r="C68" s="8"/>
     </row>
     <row r="69" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
@@ -1128,44 +1130,44 @@
       <c r="C69" s="8"/>
     </row>
     <row r="70" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="4"/>
+      <c r="A70" s="5"/>
       <c r="B70" s="4"/>
       <c r="C70" s="8"/>
     </row>
     <row r="71" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="5"/>
+      <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="8"/>
     </row>
     <row r="72" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
-      <c r="C72" s="8"/>
+      <c r="C72" s="9"/>
     </row>
     <row r="73" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
-      <c r="C73" s="9"/>
+      <c r="C73" s="8"/>
     </row>
     <row r="74" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
-      <c r="C74" s="8"/>
+      <c r="C74" s="10"/>
     </row>
     <row r="75" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
-      <c r="C75" s="10"/>
+      <c r="C75" s="11"/>
     </row>
     <row r="76" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="11"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="13"/>
     </row>
     <row r="77" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="13"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="8"/>
     </row>
     <row r="78" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
@@ -1173,47 +1175,45 @@
       <c r="C78" s="8"/>
     </row>
     <row r="79" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="4"/>
+      <c r="A79" s="5"/>
       <c r="B79" s="4"/>
       <c r="C79" s="8"/>
     </row>
     <row r="80" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="5"/>
+      <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="8"/>
     </row>
     <row r="81" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
-      <c r="C81" s="8"/>
+      <c r="C81" s="9"/>
     </row>
     <row r="82" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
-      <c r="C82" s="9"/>
+      <c r="C82" s="8"/>
     </row>
     <row r="83" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
-      <c r="C83" s="8"/>
+      <c r="C83" s="10"/>
     </row>
     <row r="84" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
-      <c r="C84" s="10"/>
+      <c r="C84" s="11"/>
     </row>
     <row r="85" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="11"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="13"/>
     </row>
     <row r="86" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="13"/>
+      <c r="C86" s="3"/>
     </row>
     <row r="87" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="4"/>
       <c r="C87" s="3"/>
     </row>
     <row r="88" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1223,27 +1223,27 @@
       <c r="C89" s="3"/>
     </row>
     <row r="90" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C90" s="3"/>
+      <c r="C90" s="2"/>
     </row>
     <row r="91" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C91" s="2"/>
     </row>
     <row r="92" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C92" s="2"/>
+      <c r="C92" s="3"/>
     </row>
     <row r="93" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C93" s="3"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="11"/>
     </row>
     <row r="94" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="4"/>
-      <c r="C94" s="11"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="13"/>
     </row>
     <row r="95" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B95" s="12"/>
-      <c r="C95" s="13"/>
+      <c r="C95" s="2"/>
     </row>
     <row r="96" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C96" s="2"/>
+      <c r="C96" s="3"/>
     </row>
     <row r="97" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C97" s="3"/>
@@ -1252,24 +1252,24 @@
       <c r="C98" s="3"/>
     </row>
     <row r="99" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C99" s="3"/>
+      <c r="C99" s="2"/>
     </row>
     <row r="100" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C100" s="2"/>
     </row>
     <row r="101" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C101" s="2"/>
+      <c r="C101" s="3"/>
     </row>
     <row r="102" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C102" s="3"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="11"/>
     </row>
     <row r="103" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B103" s="4"/>
-      <c r="C103" s="11"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="13"/>
     </row>
     <row r="104" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="12"/>
-      <c r="C104" s="13"/>
+      <c r="C104" s="3"/>
     </row>
     <row r="105" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C105" s="3"/>
@@ -1281,24 +1281,24 @@
       <c r="C107" s="3"/>
     </row>
     <row r="108" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C108" s="3"/>
+      <c r="C108" s="2"/>
     </row>
     <row r="109" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C109" s="2"/>
     </row>
     <row r="110" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C110" s="2"/>
+      <c r="C110" s="3"/>
     </row>
     <row r="111" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C111" s="3"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="11"/>
     </row>
     <row r="112" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B112" s="4"/>
-      <c r="C112" s="11"/>
+      <c r="B112" s="12"/>
+      <c r="C112" s="13"/>
     </row>
     <row r="113" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B113" s="12"/>
-      <c r="C113" s="13"/>
+      <c r="C113" s="3"/>
     </row>
     <row r="114" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C114" s="3"/>
@@ -1310,24 +1310,24 @@
       <c r="C116" s="3"/>
     </row>
     <row r="117" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C117" s="3"/>
+      <c r="C117" s="2"/>
     </row>
     <row r="118" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C118" s="2"/>
     </row>
     <row r="119" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C119" s="2"/>
+      <c r="C119" s="3"/>
     </row>
     <row r="120" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C120" s="3"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="11"/>
     </row>
     <row r="121" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B121" s="4"/>
-      <c r="C121" s="11"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="13"/>
     </row>
     <row r="122" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B122" s="12"/>
-      <c r="C122" s="13"/>
+      <c r="C122" s="3"/>
     </row>
     <row r="123" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C123" s="3"/>
@@ -1339,24 +1339,24 @@
       <c r="C125" s="3"/>
     </row>
     <row r="126" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C126" s="3"/>
+      <c r="C126" s="2"/>
     </row>
     <row r="127" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C127" s="2"/>
     </row>
     <row r="128" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C128" s="2"/>
+      <c r="C128" s="3"/>
     </row>
     <row r="129" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C129" s="3"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="11"/>
     </row>
     <row r="130" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B130" s="4"/>
-      <c r="C130" s="11"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="13"/>
     </row>
     <row r="131" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B131" s="12"/>
-      <c r="C131" s="13"/>
+      <c r="C131" s="3"/>
     </row>
     <row r="132" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C132" s="3"/>
@@ -1368,24 +1368,24 @@
       <c r="C134" s="3"/>
     </row>
     <row r="135" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C135" s="3"/>
+      <c r="C135" s="2"/>
     </row>
     <row r="136" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C136" s="2"/>
     </row>
     <row r="137" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C137" s="2"/>
+      <c r="C137" s="3"/>
     </row>
     <row r="138" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C138" s="3"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="11"/>
     </row>
     <row r="139" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B139" s="4"/>
-      <c r="C139" s="11"/>
+      <c r="B139" s="12"/>
+      <c r="C139" s="13"/>
     </row>
     <row r="140" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B140" s="12"/>
-      <c r="C140" s="13"/>
+      <c r="C140" s="3"/>
     </row>
     <row r="141" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C141" s="3"/>
@@ -1397,54 +1397,54 @@
       <c r="C143" s="3"/>
     </row>
     <row r="144" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C144" s="3"/>
+      <c r="C144" s="2"/>
     </row>
     <row r="145" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C145" s="2"/>
     </row>
     <row r="146" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C146" s="2"/>
+      <c r="C146" s="3"/>
     </row>
     <row r="147" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C147" s="3"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="11"/>
     </row>
     <row r="148" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B148" s="4"/>
-      <c r="C148" s="11"/>
+      <c r="B148" s="12"/>
+      <c r="C148" s="13"/>
     </row>
     <row r="149" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B149" s="12"/>
-      <c r="C149" s="13"/>
+      <c r="C149" s="3"/>
     </row>
     <row r="150" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C150" s="3"/>
     </row>
     <row r="151" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B151" s="14"/>
       <c r="C151" s="3"/>
     </row>
     <row r="152" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B152" s="14"/>
       <c r="C152" s="3"/>
     </row>
     <row r="153" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C153" s="3"/>
+      <c r="C153" s="2"/>
     </row>
     <row r="154" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C154" s="2"/>
     </row>
     <row r="155" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C155" s="2"/>
+      <c r="C155" s="3"/>
     </row>
     <row r="156" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C156" s="3"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="11"/>
     </row>
     <row r="157" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B157" s="4"/>
-      <c r="C157" s="11"/>
+      <c r="B157" s="12"/>
+      <c r="C157" s="13"/>
     </row>
     <row r="158" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B158" s="12"/>
-      <c r="C158" s="13"/>
+      <c r="C158" s="3"/>
     </row>
     <row r="159" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C159" s="3"/>
@@ -1456,24 +1456,24 @@
       <c r="C161" s="3"/>
     </row>
     <row r="162" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C162" s="3"/>
+      <c r="C162" s="2"/>
     </row>
     <row r="163" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C163" s="2"/>
     </row>
     <row r="164" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C164" s="2"/>
+      <c r="C164" s="3"/>
     </row>
     <row r="165" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C165" s="3"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="11"/>
     </row>
     <row r="166" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B166" s="4"/>
-      <c r="C166" s="11"/>
+      <c r="B166" s="12"/>
+      <c r="C166" s="13"/>
     </row>
     <row r="167" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B167" s="12"/>
-      <c r="C167" s="13"/>
+      <c r="C167" s="3"/>
     </row>
     <row r="168" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C168" s="3"/>
@@ -1485,24 +1485,24 @@
       <c r="C170" s="3"/>
     </row>
     <row r="171" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C171" s="3"/>
+      <c r="C171" s="2"/>
     </row>
     <row r="172" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C172" s="2"/>
     </row>
     <row r="173" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C173" s="2"/>
+      <c r="C173" s="3"/>
     </row>
     <row r="174" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C174" s="3"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="11"/>
     </row>
     <row r="175" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B175" s="4"/>
-      <c r="C175" s="11"/>
+      <c r="B175" s="12"/>
+      <c r="C175" s="13"/>
     </row>
     <row r="176" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B176" s="12"/>
-      <c r="C176" s="13"/>
+      <c r="C176" s="3"/>
     </row>
     <row r="177" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C177" s="3"/>
@@ -1514,24 +1514,24 @@
       <c r="C179" s="3"/>
     </row>
     <row r="180" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C180" s="3"/>
+      <c r="C180" s="2"/>
     </row>
     <row r="181" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C181" s="2"/>
     </row>
     <row r="182" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C182" s="2"/>
+      <c r="C182" s="3"/>
     </row>
     <row r="183" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C183" s="3"/>
+      <c r="B183" s="4"/>
+      <c r="C183" s="11"/>
     </row>
     <row r="184" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B184" s="4"/>
-      <c r="C184" s="11"/>
+      <c r="B184" s="12"/>
+      <c r="C184" s="13"/>
     </row>
     <row r="185" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B185" s="12"/>
-      <c r="C185" s="13"/>
+      <c r="C185" s="3"/>
     </row>
     <row r="186" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C186" s="3"/>
@@ -1543,24 +1543,24 @@
       <c r="C188" s="3"/>
     </row>
     <row r="189" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C189" s="3"/>
+      <c r="C189" s="2"/>
     </row>
     <row r="190" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C190" s="2"/>
     </row>
     <row r="191" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C191" s="2"/>
+      <c r="C191" s="3"/>
     </row>
     <row r="192" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C192" s="3"/>
+      <c r="B192" s="4"/>
+      <c r="C192" s="11"/>
     </row>
     <row r="193" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B193" s="4"/>
-      <c r="C193" s="11"/>
+      <c r="B193" s="12"/>
+      <c r="C193" s="13"/>
     </row>
     <row r="194" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B194" s="12"/>
-      <c r="C194" s="13"/>
+      <c r="C194" s="3"/>
     </row>
     <row r="195" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C195" s="3"/>
@@ -1572,24 +1572,24 @@
       <c r="C197" s="3"/>
     </row>
     <row r="198" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C198" s="3"/>
+      <c r="C198" s="2"/>
     </row>
     <row r="199" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C199" s="2"/>
     </row>
     <row r="200" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C200" s="2"/>
+      <c r="C200" s="3"/>
     </row>
     <row r="201" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C201" s="3"/>
+      <c r="B201" s="4"/>
+      <c r="C201" s="11"/>
     </row>
     <row r="202" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B202" s="4"/>
-      <c r="C202" s="11"/>
+      <c r="B202" s="12"/>
+      <c r="C202" s="13"/>
     </row>
     <row r="203" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B203" s="12"/>
-      <c r="C203" s="13"/>
+      <c r="C203" s="3"/>
     </row>
     <row r="204" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C204" s="3"/>
@@ -1601,24 +1601,24 @@
       <c r="C206" s="3"/>
     </row>
     <row r="207" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C207" s="3"/>
+      <c r="C207" s="2"/>
     </row>
     <row r="208" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C208" s="2"/>
     </row>
     <row r="209" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C209" s="2"/>
+      <c r="C209" s="3"/>
     </row>
     <row r="210" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C210" s="3"/>
+      <c r="B210" s="4"/>
+      <c r="C210" s="11"/>
     </row>
     <row r="211" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B211" s="4"/>
-      <c r="C211" s="11"/>
+      <c r="B211" s="12"/>
+      <c r="C211" s="13"/>
     </row>
     <row r="212" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B212" s="12"/>
-      <c r="C212" s="13"/>
+      <c r="C212" s="3"/>
     </row>
     <row r="213" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C213" s="3"/>
@@ -1630,24 +1630,24 @@
       <c r="C215" s="3"/>
     </row>
     <row r="216" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C216" s="3"/>
+      <c r="C216" s="2"/>
     </row>
     <row r="217" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C217" s="2"/>
     </row>
     <row r="218" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C218" s="2"/>
+      <c r="C218" s="3"/>
     </row>
     <row r="219" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C219" s="3"/>
+      <c r="B219" s="4"/>
+      <c r="C219" s="11"/>
     </row>
     <row r="220" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B220" s="4"/>
-      <c r="C220" s="11"/>
+      <c r="B220" s="12"/>
+      <c r="C220" s="13"/>
     </row>
     <row r="221" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B221" s="12"/>
-      <c r="C221" s="13"/>
+      <c r="C221" s="3"/>
     </row>
     <row r="222" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C222" s="3"/>
@@ -1659,24 +1659,24 @@
       <c r="C224" s="3"/>
     </row>
     <row r="225" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C225" s="3"/>
+      <c r="C225" s="2"/>
     </row>
     <row r="226" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C226" s="2"/>
     </row>
     <row r="227" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C227" s="2"/>
+      <c r="C227" s="3"/>
     </row>
     <row r="228" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C228" s="3"/>
+      <c r="B228" s="4"/>
+      <c r="C228" s="11"/>
     </row>
     <row r="229" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B229" s="4"/>
-      <c r="C229" s="11"/>
+      <c r="B229" s="12"/>
+      <c r="C229" s="13"/>
     </row>
     <row r="230" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B230" s="12"/>
-      <c r="C230" s="13"/>
+      <c r="C230" s="3"/>
     </row>
     <row r="231" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C231" s="3"/>
@@ -1688,24 +1688,24 @@
       <c r="C233" s="3"/>
     </row>
     <row r="234" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C234" s="3"/>
+      <c r="C234" s="2"/>
     </row>
     <row r="235" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C235" s="2"/>
     </row>
     <row r="236" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C236" s="2"/>
+      <c r="C236" s="3"/>
     </row>
     <row r="237" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C237" s="3"/>
+      <c r="B237" s="4"/>
+      <c r="C237" s="11"/>
     </row>
     <row r="238" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B238" s="4"/>
-      <c r="C238" s="11"/>
+      <c r="B238" s="12"/>
+      <c r="C238" s="13"/>
     </row>
     <row r="239" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B239" s="12"/>
-      <c r="C239" s="13"/>
+      <c r="C239" s="3"/>
     </row>
     <row r="240" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C240" s="3"/>
@@ -3936,7 +3936,7 @@
     <row r="982" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C982" s="3"/>
     </row>
-    <row r="983" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="983" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C983" s="3"/>
     </row>
     <row r="984" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4028,9 +4028,6 @@
     </row>
     <row r="1013" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C1013" s="3"/>
-    </row>
-    <row r="1014" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C1014" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/specific_variables/snow-temperature-profile.xlsx
+++ b/specific_variables/snow-temperature-profile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/specific_variables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F86C02-A677-5F44-97C2-6CAAE11FD7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7431A5FB-4AE5-A743-8482-0B79F1C9572C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17240" yWindow="1860" windowWidth="20540" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,12 +88,6 @@
     <t>flag_meanings</t>
   </si>
   <si>
-    <t>0, 1, 2, 3</t>
-  </si>
-  <si>
-    <t>not_used good_data bad_data_temperature_outside_sensor_operational_range bad_data_unspecified_instrument_error</t>
-  </si>
-  <si>
     <t>temperature</t>
   </si>
   <si>
@@ -152,6 +146,12 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>0, 1, 2, 3, 4</t>
+  </si>
+  <si>
+    <t>not_used good_data bad_data_temperature_outside_sensor_operational_range bad_data_unspecified_instrument_error heated_sample</t>
   </si>
 </sst>
 </file>
@@ -596,7 +596,7 @@
   <dimension ref="A1:C1013"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -620,7 +620,7 @@
     </row>
     <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -640,7 +640,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -658,7 +658,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -695,7 +695,7 @@
     </row>
     <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" s="3"/>
     </row>
@@ -728,7 +728,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -736,7 +736,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -768,7 +768,7 @@
     </row>
     <row r="21" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" s="3"/>
     </row>
@@ -777,7 +777,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -785,7 +785,7 @@
         <v>6</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -793,7 +793,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -801,7 +801,7 @@
         <v>9</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -809,7 +809,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -841,7 +841,7 @@
     </row>
     <row r="31" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C31" s="3"/>
     </row>
@@ -850,7 +850,7 @@
         <v>4</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -858,7 +858,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -866,7 +866,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -874,7 +874,7 @@
         <v>9</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -882,7 +882,7 @@
         <v>10</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -914,7 +914,7 @@
     </row>
     <row r="41" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C41" s="3"/>
     </row>
@@ -923,7 +923,7 @@
         <v>4</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -931,7 +931,7 @@
         <v>6</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -939,7 +939,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -947,7 +947,7 @@
         <v>9</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -955,7 +955,7 @@
         <v>10</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -987,7 +987,7 @@
     </row>
     <row r="51" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C51" s="3"/>
     </row>
@@ -1004,7 +1004,7 @@
         <v>6</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -1012,7 +1012,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1020,7 +1020,7 @@
         <v>9</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1028,7 +1028,7 @@
         <v>10</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1060,7 +1060,7 @@
     </row>
     <row r="61" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="8"/>
@@ -1098,7 +1098,7 @@
         <v>10</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1107,7 +1107,7 @@
         <v>20</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1116,7 +1116,7 @@
         <v>21</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">

--- a/specific_variables/snow-temperature-profile.xlsx
+++ b/specific_variables/snow-temperature-profile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/specific_variables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7431A5FB-4AE5-A743-8482-0B79F1C9572C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5C2236-91B6-A94B-9574-AFA3468FF787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17240" yWindow="1860" windowWidth="20540" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t>Variable</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>m</t>
-  </si>
-  <si>
-    <t>standard_name</t>
   </si>
   <si>
     <t>long_name</t>
@@ -104,33 +101,6 @@
   </si>
   <si>
     <t>Data Quality flag: Temperature</t>
-  </si>
-  <si>
-    <t>sample_start</t>
-  </si>
-  <si>
-    <t>precise time of first bytes received from sensor</t>
-  </si>
-  <si>
-    <t>seconds since 1970-01-01 00:00:00 UTC</t>
-  </si>
-  <si>
-    <t>float64</t>
-  </si>
-  <si>
-    <t>sample_end</t>
-  </si>
-  <si>
-    <t>precise time of last bytes received from sensor</t>
-  </si>
-  <si>
-    <t>sample_span</t>
-  </si>
-  <si>
-    <t>total time taken to receive sample from sensor [end-start]</t>
-  </si>
-  <si>
-    <t>seconds</t>
   </si>
   <si>
     <t>battery_voltage</t>
@@ -294,9 +264,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -334,7 +304,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -440,7 +410,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -582,7 +552,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -593,10 +563,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C1013"/>
+  <dimension ref="A1:C983"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -620,7 +590,7 @@
     </row>
     <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -640,7 +610,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -655,16 +625,16 @@
     <row r="6" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="16">
         <v>-1E+20</v>
@@ -673,19 +643,19 @@
     <row r="8" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>12</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="17"/>
       <c r="B9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>14</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -695,7 +665,7 @@
     </row>
     <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3"/>
     </row>
@@ -720,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -728,986 +698,843 @@
         <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
+      <c r="C16" s="7">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="7">
-        <v>-1E+20</v>
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="3"/>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>30</v>
+        <v>9</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="7">
-        <v>-1E+20</v>
+        <v>13</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3" t="s">
+    <row r="32" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="4"/>
+      <c r="B35" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="36" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="A36" s="4"/>
+      <c r="B36" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="20" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="7">
-        <v>-1E+20</v>
-      </c>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="8"/>
     </row>
     <row r="38" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="8"/>
     </row>
     <row r="39" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="A39" s="5"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="8"/>
     </row>
     <row r="40" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C40" s="3"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="8"/>
     </row>
     <row r="41" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="3"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="9"/>
     </row>
     <row r="42" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="8"/>
     </row>
     <row r="43" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>36</v>
-      </c>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="10"/>
+    </row>
+    <row r="44" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="11"/>
     </row>
     <row r="45" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
+      <c r="A45" s="4"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="13"/>
+    </row>
+    <row r="46" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="47" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="7">
-        <v>-1E+20</v>
-      </c>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="8"/>
     </row>
     <row r="48" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="8"/>
     </row>
     <row r="49" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="A49" s="5"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="8"/>
     </row>
     <row r="50" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C50" s="3"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="8"/>
     </row>
     <row r="51" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C51" s="3"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="9"/>
     </row>
     <row r="52" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>5</v>
-      </c>
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="8"/>
     </row>
     <row r="53" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="23" t="s">
-        <v>38</v>
-      </c>
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="10"/>
+    </row>
+    <row r="54" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="11"/>
     </row>
     <row r="55" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="A55" s="4"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="13"/>
     </row>
     <row r="56" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="A56" s="4"/>
+      <c r="C56" s="3"/>
     </row>
     <row r="57" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="7">
-        <v>-1E+20</v>
-      </c>
+      <c r="C57" s="3"/>
     </row>
     <row r="58" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" t="s">
-        <v>17</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="C58" s="3"/>
     </row>
     <row r="59" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" t="s">
-        <v>14</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="C59" s="3"/>
     </row>
     <row r="60" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C60" s="3"/>
+      <c r="C60" s="2"/>
     </row>
     <row r="61" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="8"/>
+      <c r="C61" s="2"/>
     </row>
     <row r="62" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="C62" s="3"/>
     </row>
     <row r="63" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="11"/>
     </row>
     <row r="64" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" s="22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="4"/>
-      <c r="B66" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C66" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="4"/>
-      <c r="B67" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="8"/>
-    </row>
-    <row r="69" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="8"/>
-    </row>
-    <row r="70" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="5"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="8"/>
-    </row>
-    <row r="71" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="8"/>
-    </row>
-    <row r="72" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="4"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="13"/>
+    </row>
+    <row r="65" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="4"/>
-      <c r="C72" s="9"/>
-    </row>
-    <row r="73" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="8"/>
-    </row>
-    <row r="74" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="10"/>
-    </row>
-    <row r="75" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="11"/>
-    </row>
-    <row r="76" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="4"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="13"/>
-    </row>
-    <row r="77" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="8"/>
-    </row>
-    <row r="78" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="8"/>
-    </row>
-    <row r="79" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="5"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="8"/>
-    </row>
-    <row r="80" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="8"/>
-    </row>
-    <row r="81" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="4"/>
+      <c r="C72" s="11"/>
+    </row>
+    <row r="73" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B73" s="12"/>
+      <c r="C73" s="13"/>
+    </row>
+    <row r="74" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C75" s="3"/>
+    </row>
+    <row r="76" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C76" s="3"/>
+    </row>
+    <row r="77" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C78" s="2"/>
+    </row>
+    <row r="79" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C79" s="2"/>
+    </row>
+    <row r="80" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="4"/>
-      <c r="C81" s="9"/>
-    </row>
-    <row r="82" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="8"/>
-    </row>
-    <row r="83" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="10"/>
-    </row>
-    <row r="84" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="11"/>
-    </row>
-    <row r="85" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="4"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="13"/>
-    </row>
-    <row r="86" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="4"/>
+      <c r="C81" s="11"/>
+    </row>
+    <row r="82" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B82" s="12"/>
+      <c r="C82" s="13"/>
+    </row>
+    <row r="83" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C86" s="3"/>
     </row>
-    <row r="87" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C87" s="3"/>
-    </row>
-    <row r="88" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C88" s="3"/>
-    </row>
-    <row r="89" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C87" s="2"/>
+    </row>
+    <row r="88" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C88" s="2"/>
+    </row>
+    <row r="89" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C89" s="3"/>
     </row>
-    <row r="90" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C90" s="2"/>
-    </row>
-    <row r="91" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C91" s="2"/>
-    </row>
-    <row r="92" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B90" s="4"/>
+      <c r="C90" s="11"/>
+    </row>
+    <row r="91" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B91" s="12"/>
+      <c r="C91" s="13"/>
+    </row>
+    <row r="92" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C92" s="3"/>
     </row>
-    <row r="93" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="4"/>
-      <c r="C93" s="11"/>
-    </row>
-    <row r="94" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="12"/>
-      <c r="C94" s="13"/>
-    </row>
-    <row r="95" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C95" s="2"/>
-    </row>
-    <row r="96" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C96" s="3"/>
+    <row r="93" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C96" s="2"/>
     </row>
     <row r="97" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C97" s="3"/>
+      <c r="C97" s="2"/>
     </row>
     <row r="98" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C98" s="3"/>
     </row>
     <row r="99" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C99" s="2"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="11"/>
     </row>
     <row r="100" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C100" s="2"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="13"/>
     </row>
     <row r="101" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C101" s="3"/>
     </row>
     <row r="102" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B102" s="4"/>
-      <c r="C102" s="11"/>
+      <c r="C102" s="3"/>
     </row>
     <row r="103" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B103" s="12"/>
-      <c r="C103" s="13"/>
+      <c r="C103" s="3"/>
     </row>
     <row r="104" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C104" s="3"/>
     </row>
     <row r="105" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C105" s="3"/>
+      <c r="C105" s="2"/>
     </row>
     <row r="106" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C106" s="3"/>
+      <c r="C106" s="2"/>
     </row>
     <row r="107" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C107" s="3"/>
     </row>
     <row r="108" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C108" s="2"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="11"/>
     </row>
     <row r="109" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C109" s="2"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="13"/>
     </row>
     <row r="110" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C110" s="3"/>
     </row>
     <row r="111" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="4"/>
-      <c r="C111" s="11"/>
+      <c r="C111" s="3"/>
     </row>
     <row r="112" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B112" s="12"/>
-      <c r="C112" s="13"/>
+      <c r="C112" s="3"/>
     </row>
     <row r="113" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C113" s="3"/>
     </row>
     <row r="114" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C114" s="3"/>
+      <c r="C114" s="2"/>
     </row>
     <row r="115" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C115" s="3"/>
+      <c r="C115" s="2"/>
     </row>
     <row r="116" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C116" s="3"/>
     </row>
     <row r="117" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C117" s="2"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="11"/>
     </row>
     <row r="118" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C118" s="2"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="13"/>
     </row>
     <row r="119" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C119" s="3"/>
     </row>
     <row r="120" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B120" s="4"/>
-      <c r="C120" s="11"/>
+      <c r="C120" s="3"/>
     </row>
     <row r="121" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B121" s="12"/>
-      <c r="C121" s="13"/>
+      <c r="B121" s="14"/>
+      <c r="C121" s="3"/>
     </row>
     <row r="122" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C122" s="3"/>
     </row>
     <row r="123" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C123" s="3"/>
+      <c r="C123" s="2"/>
     </row>
     <row r="124" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C124" s="3"/>
+      <c r="C124" s="2"/>
     </row>
     <row r="125" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C125" s="3"/>
     </row>
     <row r="126" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C126" s="2"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="11"/>
     </row>
     <row r="127" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C127" s="2"/>
+      <c r="B127" s="12"/>
+      <c r="C127" s="13"/>
     </row>
     <row r="128" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C128" s="3"/>
     </row>
     <row r="129" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B129" s="4"/>
-      <c r="C129" s="11"/>
+      <c r="C129" s="3"/>
     </row>
     <row r="130" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B130" s="12"/>
-      <c r="C130" s="13"/>
+      <c r="C130" s="3"/>
     </row>
     <row r="131" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C131" s="3"/>
     </row>
     <row r="132" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C132" s="3"/>
+      <c r="C132" s="2"/>
     </row>
     <row r="133" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C133" s="3"/>
+      <c r="C133" s="2"/>
     </row>
     <row r="134" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C134" s="3"/>
     </row>
     <row r="135" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C135" s="2"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="11"/>
     </row>
     <row r="136" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C136" s="2"/>
+      <c r="B136" s="12"/>
+      <c r="C136" s="13"/>
     </row>
     <row r="137" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C137" s="3"/>
     </row>
     <row r="138" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B138" s="4"/>
-      <c r="C138" s="11"/>
+      <c r="C138" s="3"/>
     </row>
     <row r="139" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B139" s="12"/>
-      <c r="C139" s="13"/>
+      <c r="C139" s="3"/>
     </row>
     <row r="140" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C140" s="3"/>
     </row>
     <row r="141" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C141" s="3"/>
+      <c r="C141" s="2"/>
     </row>
     <row r="142" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C142" s="3"/>
+      <c r="C142" s="2"/>
     </row>
     <row r="143" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C143" s="3"/>
     </row>
     <row r="144" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C144" s="2"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="11"/>
     </row>
     <row r="145" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C145" s="2"/>
+      <c r="B145" s="12"/>
+      <c r="C145" s="13"/>
     </row>
     <row r="146" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C146" s="3"/>
     </row>
     <row r="147" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B147" s="4"/>
-      <c r="C147" s="11"/>
+      <c r="C147" s="3"/>
     </row>
     <row r="148" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B148" s="12"/>
-      <c r="C148" s="13"/>
+      <c r="C148" s="3"/>
     </row>
     <row r="149" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C149" s="3"/>
     </row>
     <row r="150" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C150" s="3"/>
+      <c r="C150" s="2"/>
     </row>
     <row r="151" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B151" s="14"/>
-      <c r="C151" s="3"/>
+      <c r="C151" s="2"/>
     </row>
     <row r="152" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C152" s="3"/>
     </row>
     <row r="153" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C153" s="2"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="11"/>
     </row>
     <row r="154" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C154" s="2"/>
+      <c r="B154" s="12"/>
+      <c r="C154" s="13"/>
     </row>
     <row r="155" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C155" s="3"/>
     </row>
     <row r="156" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B156" s="4"/>
-      <c r="C156" s="11"/>
+      <c r="C156" s="3"/>
     </row>
     <row r="157" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B157" s="12"/>
-      <c r="C157" s="13"/>
+      <c r="C157" s="3"/>
     </row>
     <row r="158" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C158" s="3"/>
     </row>
     <row r="159" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C159" s="3"/>
+      <c r="C159" s="2"/>
     </row>
     <row r="160" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C160" s="3"/>
+      <c r="C160" s="2"/>
     </row>
     <row r="161" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C161" s="3"/>
     </row>
     <row r="162" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C162" s="2"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="11"/>
     </row>
     <row r="163" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C163" s="2"/>
+      <c r="B163" s="12"/>
+      <c r="C163" s="13"/>
     </row>
     <row r="164" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C164" s="3"/>
     </row>
     <row r="165" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B165" s="4"/>
-      <c r="C165" s="11"/>
+      <c r="C165" s="3"/>
     </row>
     <row r="166" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B166" s="12"/>
-      <c r="C166" s="13"/>
+      <c r="C166" s="3"/>
     </row>
     <row r="167" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C167" s="3"/>
     </row>
     <row r="168" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C168" s="3"/>
+      <c r="C168" s="2"/>
     </row>
     <row r="169" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C169" s="3"/>
+      <c r="C169" s="2"/>
     </row>
     <row r="170" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C170" s="3"/>
     </row>
     <row r="171" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C171" s="2"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="11"/>
     </row>
     <row r="172" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C172" s="2"/>
+      <c r="B172" s="12"/>
+      <c r="C172" s="13"/>
     </row>
     <row r="173" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C173" s="3"/>
     </row>
     <row r="174" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B174" s="4"/>
-      <c r="C174" s="11"/>
+      <c r="C174" s="3"/>
     </row>
     <row r="175" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B175" s="12"/>
-      <c r="C175" s="13"/>
+      <c r="C175" s="3"/>
     </row>
     <row r="176" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C176" s="3"/>
     </row>
     <row r="177" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C177" s="3"/>
+      <c r="C177" s="2"/>
     </row>
     <row r="178" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C178" s="3"/>
+      <c r="C178" s="2"/>
     </row>
     <row r="179" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C179" s="3"/>
     </row>
     <row r="180" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C180" s="2"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="11"/>
     </row>
     <row r="181" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C181" s="2"/>
+      <c r="B181" s="12"/>
+      <c r="C181" s="13"/>
     </row>
     <row r="182" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C182" s="3"/>
     </row>
     <row r="183" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B183" s="4"/>
-      <c r="C183" s="11"/>
+      <c r="C183" s="3"/>
     </row>
     <row r="184" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B184" s="12"/>
-      <c r="C184" s="13"/>
+      <c r="C184" s="3"/>
     </row>
     <row r="185" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C185" s="3"/>
     </row>
     <row r="186" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C186" s="3"/>
+      <c r="C186" s="2"/>
     </row>
     <row r="187" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C187" s="3"/>
+      <c r="C187" s="2"/>
     </row>
     <row r="188" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C188" s="3"/>
     </row>
     <row r="189" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C189" s="2"/>
+      <c r="B189" s="4"/>
+      <c r="C189" s="11"/>
     </row>
     <row r="190" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C190" s="2"/>
+      <c r="B190" s="12"/>
+      <c r="C190" s="13"/>
     </row>
     <row r="191" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C191" s="3"/>
     </row>
     <row r="192" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B192" s="4"/>
-      <c r="C192" s="11"/>
+      <c r="C192" s="3"/>
     </row>
     <row r="193" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B193" s="12"/>
-      <c r="C193" s="13"/>
+      <c r="C193" s="3"/>
     </row>
     <row r="194" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C194" s="3"/>
     </row>
     <row r="195" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C195" s="3"/>
+      <c r="C195" s="2"/>
     </row>
     <row r="196" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C196" s="3"/>
+      <c r="C196" s="2"/>
     </row>
     <row r="197" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C197" s="3"/>
     </row>
     <row r="198" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C198" s="2"/>
+      <c r="B198" s="4"/>
+      <c r="C198" s="11"/>
     </row>
     <row r="199" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C199" s="2"/>
+      <c r="B199" s="12"/>
+      <c r="C199" s="13"/>
     </row>
     <row r="200" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C200" s="3"/>
     </row>
     <row r="201" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B201" s="4"/>
-      <c r="C201" s="11"/>
+      <c r="C201" s="3"/>
     </row>
     <row r="202" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B202" s="12"/>
-      <c r="C202" s="13"/>
+      <c r="C202" s="3"/>
     </row>
     <row r="203" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C203" s="3"/>
     </row>
     <row r="204" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C204" s="3"/>
+      <c r="C204" s="2"/>
     </row>
     <row r="205" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C205" s="3"/>
+      <c r="C205" s="2"/>
     </row>
     <row r="206" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C206" s="3"/>
     </row>
     <row r="207" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C207" s="2"/>
+      <c r="B207" s="4"/>
+      <c r="C207" s="11"/>
     </row>
     <row r="208" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C208" s="2"/>
-    </row>
-    <row r="209" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B208" s="12"/>
+      <c r="C208" s="13"/>
+    </row>
+    <row r="209" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C209" s="3"/>
     </row>
-    <row r="210" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B210" s="4"/>
-      <c r="C210" s="11"/>
-    </row>
-    <row r="211" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B211" s="12"/>
-      <c r="C211" s="13"/>
-    </row>
-    <row r="212" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C210" s="3"/>
+    </row>
+    <row r="211" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C211" s="3"/>
+    </row>
+    <row r="212" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C212" s="3"/>
     </row>
-    <row r="213" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C213" s="3"/>
     </row>
-    <row r="214" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C214" s="3"/>
     </row>
-    <row r="215" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C215" s="3"/>
     </row>
-    <row r="216" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C216" s="2"/>
-    </row>
-    <row r="217" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C217" s="2"/>
-    </row>
-    <row r="218" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C216" s="3"/>
+    </row>
+    <row r="217" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C217" s="3"/>
+    </row>
+    <row r="218" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C218" s="3"/>
     </row>
-    <row r="219" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B219" s="4"/>
-      <c r="C219" s="11"/>
-    </row>
-    <row r="220" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B220" s="12"/>
-      <c r="C220" s="13"/>
-    </row>
-    <row r="221" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C219" s="3"/>
+    </row>
+    <row r="220" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C220" s="3"/>
+    </row>
+    <row r="221" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C221" s="3"/>
     </row>
-    <row r="222" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C222" s="3"/>
     </row>
-    <row r="223" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C223" s="3"/>
     </row>
-    <row r="224" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C224" s="3"/>
     </row>
-    <row r="225" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C225" s="2"/>
-    </row>
-    <row r="226" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C226" s="2"/>
-    </row>
-    <row r="227" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C225" s="3"/>
+    </row>
+    <row r="226" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C226" s="3"/>
+    </row>
+    <row r="227" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C227" s="3"/>
     </row>
-    <row r="228" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B228" s="4"/>
-      <c r="C228" s="11"/>
-    </row>
-    <row r="229" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B229" s="12"/>
-      <c r="C229" s="13"/>
-    </row>
-    <row r="230" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C228" s="3"/>
+    </row>
+    <row r="229" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C229" s="3"/>
+    </row>
+    <row r="230" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C230" s="3"/>
     </row>
-    <row r="231" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C231" s="3"/>
     </row>
-    <row r="232" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C232" s="3"/>
     </row>
-    <row r="233" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C233" s="3"/>
     </row>
-    <row r="234" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C234" s="2"/>
-    </row>
-    <row r="235" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C235" s="2"/>
-    </row>
-    <row r="236" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C234" s="3"/>
+    </row>
+    <row r="235" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C235" s="3"/>
+    </row>
+    <row r="236" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C236" s="3"/>
     </row>
-    <row r="237" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B237" s="4"/>
-      <c r="C237" s="11"/>
-    </row>
-    <row r="238" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B238" s="12"/>
-      <c r="C238" s="13"/>
-    </row>
-    <row r="239" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C237" s="3"/>
+    </row>
+    <row r="238" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C238" s="3"/>
+    </row>
+    <row r="239" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C239" s="3"/>
     </row>
-    <row r="240" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C240" s="3"/>
     </row>
     <row r="241" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -3930,104 +3757,14 @@
     <row r="980" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C980" s="3"/>
     </row>
-    <row r="981" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="981" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C981" s="3"/>
     </row>
-    <row r="982" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="982" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C982" s="3"/>
     </row>
     <row r="983" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C983" s="3"/>
-    </row>
-    <row r="984" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C984" s="3"/>
-    </row>
-    <row r="985" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C985" s="3"/>
-    </row>
-    <row r="986" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C986" s="3"/>
-    </row>
-    <row r="987" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C987" s="3"/>
-    </row>
-    <row r="988" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C988" s="3"/>
-    </row>
-    <row r="989" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C989" s="3"/>
-    </row>
-    <row r="990" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C990" s="3"/>
-    </row>
-    <row r="991" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C991" s="3"/>
-    </row>
-    <row r="992" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C992" s="3"/>
-    </row>
-    <row r="993" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C993" s="3"/>
-    </row>
-    <row r="994" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C994" s="3"/>
-    </row>
-    <row r="995" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C995" s="3"/>
-    </row>
-    <row r="996" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C996" s="3"/>
-    </row>
-    <row r="997" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C997" s="3"/>
-    </row>
-    <row r="998" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C998" s="3"/>
-    </row>
-    <row r="999" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C999" s="3"/>
-    </row>
-    <row r="1000" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C1000" s="3"/>
-    </row>
-    <row r="1001" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C1001" s="3"/>
-    </row>
-    <row r="1002" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C1002" s="3"/>
-    </row>
-    <row r="1003" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C1003" s="3"/>
-    </row>
-    <row r="1004" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C1004" s="3"/>
-    </row>
-    <row r="1005" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C1005" s="3"/>
-    </row>
-    <row r="1006" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C1006" s="3"/>
-    </row>
-    <row r="1007" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C1007" s="3"/>
-    </row>
-    <row r="1008" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C1008" s="3"/>
-    </row>
-    <row r="1009" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C1009" s="3"/>
-    </row>
-    <row r="1010" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C1010" s="3"/>
-    </row>
-    <row r="1011" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C1011" s="3"/>
-    </row>
-    <row r="1012" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C1012" s="3"/>
-    </row>
-    <row r="1013" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C1013" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
